--- a/InputData/dist-heat/RHFF/Recipient Heat Fuel Fractions.xlsx
+++ b/InputData/dist-heat/RHFF/Recipient Heat Fuel Fractions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\dist-heat\RHFF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\dist-heat\RHFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4A5C5A-F1DD-4AB6-ABF0-1E0279B2EC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212CD4C9-A289-4506-B34C-B29D4C4DE473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32625" yWindow="2040" windowWidth="24900" windowHeight="14490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Source:</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>We assume shifting to electricity via large scale electric heat pumps.</t>
+  </si>
+  <si>
+    <t>green hydrogen</t>
+  </si>
+  <si>
+    <t>low carbon hydrogen</t>
   </si>
 </sst>
 </file>
@@ -436,21 +442,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="80.28515625" customWidth="1"/>
+    <col min="2" max="2" width="80.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,25 +464,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -492,19 +498,21 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="11" width="15" style="4" customWidth="1"/>
+    <col min="1" max="1" width="35.81640625" customWidth="1"/>
+    <col min="2" max="10" width="15" style="4" customWidth="1"/>
+    <col min="11" max="11" width="15.1796875" style="4" customWidth="1"/>
+    <col min="12" max="13" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -538,8 +546,14 @@
       <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -573,8 +587,14 @@
       <c r="K2" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="4">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -608,8 +628,14 @@
       <c r="K3" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -643,8 +669,14 @@
       <c r="K4" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -678,8 +710,14 @@
       <c r="K5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -713,8 +751,14 @@
       <c r="K6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -748,8 +792,14 @@
       <c r="K7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -783,8 +833,14 @@
       <c r="K8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -818,8 +874,14 @@
       <c r="K9" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -853,8 +915,14 @@
       <c r="K10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -886,6 +954,94 @@
         <v>0</v>
       </c>
       <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
         <v>0</v>
       </c>
     </row>
